--- a/Resources/Roadmap.xlsx
+++ b/Resources/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianmarco Accordi\Documents\Project-INGSW2\AbboAccordiBonetti\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7204B774-7F8A-44FB-A88F-A0D961A6A3D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BF6E45-8B47-4C81-A3EA-BE0559B51DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Week 1</t>
   </si>
@@ -37,21 +37,6 @@
   </si>
   <si>
     <t>Week 4</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>Task 1</t>
@@ -104,25 +89,6 @@
   </si>
   <si>
     <t>Overall Project</t>
-  </si>
-  <si>
-    <t>Third Service 
-Integration</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Data  Analysis</t>
-  </si>
-  <si>
-    <t>Report Manager</t>
-  </si>
-  <si>
-    <t>Client Manager</t>
-  </si>
-  <si>
-    <t>Data Integration</t>
   </si>
   <si>
     <t>Roadmap Development
@@ -149,6 +115,118 @@
       <t>Data  Management
 Logic</t>
     </r>
+  </si>
+  <si>
+    <t>Report Elboration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Managment </t>
+  </si>
+  <si>
+    <t>Registration Part</t>
+  </si>
+  <si>
+    <t>Authorization Manager</t>
+  </si>
+  <si>
+    <t>Data Integration
+Manager</t>
+  </si>
+  <si>
+    <t>Data Analysis Manager</t>
+  </si>
+  <si>
+    <t>Third Services Integration</t>
+  </si>
+  <si>
+    <t>Suggestion Manager</t>
+  </si>
+  <si>
+    <t>Acces  Reports Manager</t>
+  </si>
+  <si>
+    <t>09 M</t>
+  </si>
+  <si>
+    <t>10 T</t>
+  </si>
+  <si>
+    <t>11 W</t>
+  </si>
+  <si>
+    <t>12 T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 F</t>
+  </si>
+  <si>
+    <t>14 S</t>
+  </si>
+  <si>
+    <t>16 M</t>
+  </si>
+  <si>
+    <t>15 S</t>
+  </si>
+  <si>
+    <t>17 T</t>
+  </si>
+  <si>
+    <t>18 W</t>
+  </si>
+  <si>
+    <t>19 T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20F </t>
+  </si>
+  <si>
+    <t>21 S</t>
+  </si>
+  <si>
+    <t>22 S</t>
+  </si>
+  <si>
+    <t>23 M</t>
+  </si>
+  <si>
+    <t>24 T</t>
+  </si>
+  <si>
+    <t>25 W</t>
+  </si>
+  <si>
+    <t>26 T</t>
+  </si>
+  <si>
+    <t>27 F</t>
+  </si>
+  <si>
+    <t>28 S</t>
+  </si>
+  <si>
+    <t>29 S</t>
+  </si>
+  <si>
+    <t>30 M</t>
+  </si>
+  <si>
+    <t>31 T</t>
+  </si>
+  <si>
+    <t>1 W</t>
+  </si>
+  <si>
+    <t>2 T</t>
+  </si>
+  <si>
+    <t>3 F</t>
+  </si>
+  <si>
+    <t>4 S</t>
+  </si>
+  <si>
+    <t>5 S</t>
   </si>
 </sst>
 </file>
@@ -752,27 +830,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,13 +845,31 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -803,14 +878,17 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -881,8 +959,8 @@
       <xdr:rowOff>185966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>392906</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>235033</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>530679</xdr:rowOff>
     </xdr:to>
@@ -899,8 +977,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4752147" y="2753575"/>
-          <a:ext cx="10963585" cy="344713"/>
+          <a:off x="4755696" y="2689680"/>
+          <a:ext cx="11345266" cy="344713"/>
           <a:chOff x="2848428" y="2866570"/>
           <a:chExt cx="10951291" cy="388258"/>
         </a:xfrm>
@@ -1087,8 +1165,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2647436" y="2096683"/>
-          <a:ext cx="16052328" cy="344715"/>
+          <a:off x="2665184" y="2041071"/>
+          <a:ext cx="15894959" cy="344715"/>
           <a:chOff x="2848428" y="2866571"/>
           <a:chExt cx="10929256" cy="388257"/>
         </a:xfrm>
@@ -1274,8 +1352,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2730893" y="5070889"/>
-          <a:ext cx="13217861" cy="332922"/>
+          <a:off x="2748641" y="4973864"/>
+          <a:ext cx="13090073" cy="332922"/>
           <a:chOff x="2848428" y="2866570"/>
           <a:chExt cx="10951291" cy="388258"/>
         </a:xfrm>
@@ -1438,15 +1516,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>545293</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>197922</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>299862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>599722</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>798790</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1462,8 +1540,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3734097" y="8085514"/>
-          <a:ext cx="12188451" cy="498928"/>
+          <a:off x="2783279" y="8518576"/>
+          <a:ext cx="13029229" cy="498928"/>
           <a:chOff x="2848428" y="2866570"/>
           <a:chExt cx="10951291" cy="388258"/>
         </a:xfrm>
@@ -1626,16 +1704,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>292641</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119459</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>107813</xdr:rowOff>
+      <xdr:rowOff>120183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>11905</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247402</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>474996</xdr:rowOff>
+      <xdr:rowOff>487366</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1650,8 +1728,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4806663" y="3255204"/>
-          <a:ext cx="9120025" cy="946966"/>
+          <a:off x="6324316" y="3195397"/>
+          <a:ext cx="9789015" cy="938683"/>
           <a:chOff x="3218543" y="3545112"/>
           <a:chExt cx="8431651" cy="833822"/>
         </a:xfrm>
@@ -1764,13 +1842,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>377371</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>377371</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1830,13 +1908,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>511629</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>166913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>529771</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>420913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1896,13 +1974,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>442686</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>206830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>515257</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>43544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1958,13 +2036,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>595087</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>268516</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>14515</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>105231</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2020,13 +2098,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>29029</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>137885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>224972</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>460830</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2042,8 +2120,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9926746" y="12962283"/>
-          <a:ext cx="6283661" cy="0"/>
+          <a:off x="9695140" y="14534444"/>
+          <a:ext cx="6193165" cy="0"/>
           <a:chOff x="9789886" y="8792028"/>
           <a:chExt cx="6201228" cy="2064659"/>
         </a:xfrm>
@@ -2399,15 +2477,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>225592</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>162376</xdr:rowOff>
+      <xdr:colOff>225593</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>162375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>315685</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>574220</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2422,8 +2500,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4739614" y="10805528"/>
-          <a:ext cx="13922049" cy="411844"/>
+          <a:off x="4743164" y="12490446"/>
+          <a:ext cx="13082194" cy="463553"/>
           <a:chOff x="2848428" y="2866569"/>
           <a:chExt cx="10951291" cy="388259"/>
         </a:xfrm>
@@ -2586,16 +2664,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>100262</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>347664</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>248938</xdr:rowOff>
+      <xdr:rowOff>187087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>363453</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>264492</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>538915</xdr:rowOff>
+      <xdr:rowOff>477064</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2610,8 +2688,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7970920" y="4485056"/>
-          <a:ext cx="6567237" cy="289977"/>
+          <a:off x="4875132" y="4417671"/>
+          <a:ext cx="6510107" cy="289977"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2658,8 +2736,8 @@
       <xdr:rowOff>136137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>513850</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>569026</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>440659</xdr:rowOff>
     </xdr:to>
@@ -2676,8 +2754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2782304" y="5525282"/>
-          <a:ext cx="5602204" cy="304522"/>
+          <a:off x="2785722" y="5529514"/>
+          <a:ext cx="4957979" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2784,16 +2862,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>129340</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>587035</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>102550</xdr:rowOff>
+      <xdr:rowOff>53069</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>313321</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>235032</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>407072</xdr:rowOff>
+      <xdr:rowOff>357591</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2808,8 +2886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2723649" y="6644721"/>
-          <a:ext cx="7766383" cy="304522"/>
+          <a:off x="5757749" y="6609238"/>
+          <a:ext cx="5598030" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2850,16 +2928,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>16543</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>235032</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>177747</xdr:rowOff>
+      <xdr:rowOff>153007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>275723</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>547866</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>482269</xdr:rowOff>
+      <xdr:rowOff>457529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2874,14 +2952,80 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5856872" y="7296431"/>
-          <a:ext cx="8593555" cy="304522"/>
+          <a:off x="8052954" y="7290572"/>
+          <a:ext cx="7574100" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="8D1A12"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>346365</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>37111</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>446675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D69BA9-1EBA-41EE-8C45-E771DC31C93D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2944092" y="8920468"/>
+          <a:ext cx="8213766" cy="358480"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="518126"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -2917,22 +3061,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>8337</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>88195</xdr:rowOff>
+      <xdr:colOff>547749</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>131625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>446675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>606135</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>436147</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="Rounded Rectangle 36">
+        <xdr:cNvPr id="126" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D69BA9-1EBA-41EE-8C45-E771DC31C93D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48923997-393B-40C5-97BF-80CC44BFC7EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2940,8 +3084,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3888893" y="8942917"/>
-          <a:ext cx="7964440" cy="358480"/>
+          <a:off x="4431970" y="9570034"/>
+          <a:ext cx="6639295" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2982,82 +3126,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>131625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>506460</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121422</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>401053</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>436147</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="Rounded Rectangle 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48923997-393B-40C5-97BF-80CC44BFC7EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5798219" y="9543829"/>
-          <a:ext cx="6458952" cy="304522"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="518126"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="518126"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>135356</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>146163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>290262</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>450685</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74221</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>425944</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3072,8 +3150,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8006014" y="10159946"/>
-          <a:ext cx="6458952" cy="304522"/>
+          <a:off x="3104187" y="10772104"/>
+          <a:ext cx="4144709" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3116,14 +3194,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>87230</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>639177</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>452689</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>408215</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3138,8 +3216,74 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6654467" y="11340042"/>
-          <a:ext cx="9838822" cy="304522"/>
+          <a:off x="6645873" y="13047738"/>
+          <a:ext cx="10852913" cy="260048"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F79646"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24741</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>150173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>383475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>454695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBE4EC5-7309-4E1C-816B-452A530B0741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838702" y="12569783"/>
+          <a:ext cx="10267208" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3181,22 +3325,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>264695</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>150173</xdr:rowOff>
+      <xdr:colOff>247402</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>563979</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>454695</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>296883</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>481766</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="Rounded Rectangle 36">
+        <xdr:cNvPr id="130" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBE4EC5-7309-4E1C-816B-452A530B0741}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{976AC11C-0DA9-4DC5-BA64-57BE2248F557}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,8 +3348,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4801603" y="11918561"/>
-          <a:ext cx="12919909" cy="304522"/>
+          <a:off x="4774870" y="13178250"/>
+          <a:ext cx="9586851" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3246,23 +3390,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>16043</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>177244</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>27983</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>75901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>563981</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>481766</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>226621</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>380423</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="Rounded Rectangle 36">
+        <xdr:cNvPr id="48" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{976AC11C-0DA9-4DC5-BA64-57BE2248F557}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4831CD42-C8CB-4C34-8C1B-2E1CFE2DBD9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3270,14 +3414,146 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5856372" y="12522145"/>
-          <a:ext cx="11865142" cy="304522"/>
+          <a:off x="8489152" y="10701843"/>
+          <a:ext cx="4144709" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="F79646"/>
+          <a:srgbClr val="518126"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>181706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>514714</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>486228</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDCF3F9-DDA8-4BFB-AB00-9FBF8671237A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10440390" y="7900667"/>
+          <a:ext cx="5153512" cy="304522"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="8D1A12"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581396</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>362693</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>343313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBD5BCD-00AE-43CE-8DFC-5FC6358BD80A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9685812" y="11270869"/>
+          <a:ext cx="5756069" cy="304522"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="518126"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -3635,11 +3911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:AD34"/>
+  <dimension ref="B4:AD37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="23" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN16" sqref="AN16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="35" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3665,71 +3941,71 @@
   <sheetData>
     <row r="4" spans="2:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:30" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="24"/>
+      <c r="B5" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="37"/>
     </row>
     <row r="6" spans="2:30" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="36"/>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="32" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="32" t="s">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="34"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="33"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17" t="s">
@@ -3741,95 +4017,95 @@
       <c r="AD6" s="13"/>
     </row>
     <row r="7" spans="2:30" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="AD7" s="14" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:30" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
-        <v>25</v>
+      <c r="B8" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3861,8 +4137,8 @@
       <c r="AD8" s="15"/>
     </row>
     <row r="9" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
-        <v>17</v>
+      <c r="B9" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3894,8 +4170,8 @@
       <c r="AD9" s="15"/>
     </row>
     <row r="10" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
-        <v>21</v>
+      <c r="B10" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3927,8 +4203,8 @@
       <c r="AD10" s="15"/>
     </row>
     <row r="11" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
-        <v>22</v>
+      <c r="B11" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3960,8 +4236,8 @@
       <c r="AD11" s="15"/>
     </row>
     <row r="12" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
-        <v>23</v>
+      <c r="B12" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3993,8 +4269,8 @@
       <c r="AD12" s="15"/>
     </row>
     <row r="13" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
-        <v>18</v>
+      <c r="B13" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4026,8 +4302,8 @@
       <c r="AD13" s="15"/>
     </row>
     <row r="14" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
-        <v>24</v>
+      <c r="B14" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4059,8 +4335,8 @@
       <c r="AD14" s="15"/>
     </row>
     <row r="15" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
-        <v>26</v>
+      <c r="B15" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4092,8 +4368,8 @@
       <c r="AD15" s="15"/>
     </row>
     <row r="16" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
-        <v>27</v>
+      <c r="B16" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4125,8 +4401,8 @@
       <c r="AD16" s="15"/>
     </row>
     <row r="17" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
-        <v>28</v>
+      <c r="B17" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4157,9 +4433,9 @@
       <c r="AC17" s="11"/>
       <c r="AD17" s="15"/>
     </row>
-    <row r="18" spans="2:30" ht="87.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
-        <v>19</v>
+    <row r="18" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4190,9 +4466,9 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="15"/>
     </row>
-    <row r="19" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
-        <v>29</v>
+    <row r="19" spans="2:30" ht="87.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4224,8 +4500,8 @@
       <c r="AD19" s="15"/>
     </row>
     <row r="20" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
-        <v>30</v>
+      <c r="B20" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4257,8 +4533,8 @@
       <c r="AD20" s="15"/>
     </row>
     <row r="21" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
-        <v>31</v>
+      <c r="B21" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4289,9 +4565,9 @@
       <c r="AC21" s="11"/>
       <c r="AD21" s="15"/>
     </row>
-    <row r="22" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
-        <v>20</v>
+    <row r="22" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4322,8 +4598,8 @@
       <c r="AC22" s="11"/>
       <c r="AD22" s="15"/>
     </row>
-    <row r="23" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
+    <row r="23" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="7"/>
@@ -4355,9 +4631,9 @@
       <c r="AC23" s="11"/>
       <c r="AD23" s="15"/>
     </row>
-    <row r="24" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
-        <v>34</v>
+    <row r="24" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4388,11 +4664,11 @@
       <c r="AC24" s="11"/>
       <c r="AD24" s="15"/>
     </row>
-    <row r="25" spans="2:30" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="6"/>
+    <row r="25" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -4421,11 +4697,11 @@
       <c r="AC25" s="11"/>
       <c r="AD25" s="15"/>
     </row>
-    <row r="26" spans="2:30" ht="45.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="6"/>
+    <row r="26" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -4454,11 +4730,11 @@
       <c r="AC26" s="11"/>
       <c r="AD26" s="15"/>
     </row>
-    <row r="27" spans="2:30" ht="45.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="6"/>
+    <row r="27" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -4487,9 +4763,9 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="15"/>
     </row>
-    <row r="28" spans="2:30" ht="45.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
-        <v>11</v>
+    <row r="28" spans="2:30" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
@@ -4522,7 +4798,7 @@
     </row>
     <row r="29" spans="2:30" ht="45.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
@@ -4555,7 +4831,7 @@
     </row>
     <row r="30" spans="2:30" ht="45.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
@@ -4588,7 +4864,7 @@
     </row>
     <row r="31" spans="2:30" ht="45.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
@@ -4619,103 +4895,202 @@
       <c r="AC31" s="11"/>
       <c r="AD31" s="15"/>
     </row>
-    <row r="32" spans="2:30" ht="45.95" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="21"/>
+    <row r="32" spans="2:30" ht="45.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="15"/>
     </row>
-    <row r="33" spans="2:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="3"/>
+    <row r="33" spans="2:30" ht="45.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="15"/>
     </row>
-    <row r="34" spans="2:30" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
+    <row r="34" spans="2:30" ht="45.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="15"/>
+    </row>
+    <row r="35" spans="2:30" ht="45.95" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="27"/>
+    </row>
+    <row r="36" spans="2:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="3"/>
+    </row>
+    <row r="37" spans="2:30" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B34:AD34"/>
-    <mergeCell ref="B32:AD32"/>
+    <mergeCell ref="B37:AD37"/>
+    <mergeCell ref="B35:AD35"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="J6:P6"/>
@@ -4735,18 +5110,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4953,14 +5328,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8273896-8792-417D-9E00-9C57D91D22E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{861B9A89-FDBD-407C-87EE-99DB2DA7E701}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4973,6 +5340,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8273896-8792-417D-9E00-9C57D91D22E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Resources/Roadmap.xlsx
+++ b/Resources/Roadmap.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianmarco Accordi\Documents\Project-INGSW2\AbboAccordiBonetti\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Desktop/SE2proj/AbboAccordiBonetti/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BF6E45-8B47-4C81-A3EA-BE0559B51DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CADE32-BF82-7B45-84B9-AE14C93E7931}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Releases" sheetId="1" r:id="rId1"/>
+    <sheet name="Releases (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
   <si>
     <t>Week 1</t>
   </si>
@@ -228,12 +230,33 @@
   <si>
     <t>5 S</t>
   </si>
+  <si>
+    <t>DataManagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Management </t>
+  </si>
+  <si>
+    <t>Web App Manager</t>
+  </si>
+  <si>
+    <t>RegistrationManager</t>
+  </si>
+  <si>
+    <t>ReportElboration</t>
+  </si>
+  <si>
+    <t>System Testing</t>
+  </si>
+  <si>
+    <t>Third Services Adapters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -368,7 +391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -751,6 +774,214 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -783,7 +1014,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -848,16 +1079,83 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,14 +1179,29 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -926,16 +1239,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFEB5D"/>
+      <color rgb="FFFFD579"/>
+      <color rgb="FFFFE34C"/>
+      <color rgb="FFFFB848"/>
+      <color rgb="FFD61F1E"/>
       <color rgb="FFF79646"/>
       <color rgb="FF518126"/>
       <color rgb="FF8D1A12"/>
       <color rgb="FF792E12"/>
       <color rgb="FF0A52BC"/>
-      <color rgb="FF0768C8"/>
-      <color rgb="FFD3E0B4"/>
-      <color rgb="FFE8EFD9"/>
-      <color rgb="FFEA8338"/>
-      <color rgb="FFEFDDDB"/>
     </mruColors>
   </colors>
   <extLst>
@@ -953,14 +1266,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>117231</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>185966</xdr:rowOff>
+      <xdr:rowOff>214923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>235033</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>527538</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>530679</xdr:rowOff>
     </xdr:to>
@@ -977,8 +1290,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4755696" y="2689680"/>
-          <a:ext cx="11345266" cy="344713"/>
+          <a:off x="2733431" y="2780323"/>
+          <a:ext cx="13161107" cy="315756"/>
           <a:chOff x="2848428" y="2866570"/>
           <a:chExt cx="10951291" cy="388258"/>
         </a:xfrm>
@@ -1142,13 +1455,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>79827</xdr:colOff>
+      <xdr:colOff>99365</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>353786</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>2093</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>453572</xdr:rowOff>
     </xdr:to>
@@ -1165,8 +1478,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2665184" y="2041071"/>
-          <a:ext cx="15894959" cy="344715"/>
+          <a:off x="2715565" y="2090057"/>
+          <a:ext cx="16057128" cy="344715"/>
           <a:chOff x="2848428" y="2866571"/>
           <a:chExt cx="10929256" cy="388257"/>
         </a:xfrm>
@@ -1328,14 +1641,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>163284</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>156307</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>117231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>625928</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>527538</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>517072</xdr:rowOff>
     </xdr:to>
@@ -1352,8 +1665,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2748641" y="4973864"/>
-          <a:ext cx="13090073" cy="332922"/>
+          <a:off x="4728307" y="5019431"/>
+          <a:ext cx="10505831" cy="399841"/>
           <a:chOff x="2848428" y="2866570"/>
           <a:chExt cx="10951291" cy="388258"/>
         </a:xfrm>
@@ -1517,15 +1830,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>197922</xdr:colOff>
+      <xdr:colOff>139307</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>299862</xdr:rowOff>
+      <xdr:rowOff>429846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>599722</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>566615</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>798790</xdr:rowOff>
+      <xdr:rowOff>779251</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1540,8 +1853,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2783279" y="8518576"/>
-          <a:ext cx="13029229" cy="498928"/>
+          <a:off x="2755507" y="8837246"/>
+          <a:ext cx="12517708" cy="349405"/>
           <a:chOff x="2848428" y="2866570"/>
           <a:chExt cx="10951291" cy="388258"/>
         </a:xfrm>
@@ -1704,16 +2017,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>119459</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>178074</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>120183</xdr:rowOff>
+      <xdr:rowOff>175849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>247402</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>488462</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>487366</xdr:rowOff>
+      <xdr:rowOff>467827</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1728,10 +2041,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6324316" y="3195397"/>
-          <a:ext cx="9789015" cy="938683"/>
-          <a:chOff x="3218543" y="3545112"/>
-          <a:chExt cx="8431651" cy="833822"/>
+          <a:off x="4750074" y="3325449"/>
+          <a:ext cx="5009388" cy="876178"/>
+          <a:chOff x="3218543" y="3576711"/>
+          <a:chExt cx="4260176" cy="768045"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="0A52BC"/>
@@ -1750,8 +2063,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3218543" y="3545112"/>
-            <a:ext cx="7416362" cy="269067"/>
+            <a:off x="3218543" y="3576711"/>
+            <a:ext cx="3682838" cy="237468"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -1799,8 +2112,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4345366" y="4124932"/>
-            <a:ext cx="7304828" cy="254002"/>
+            <a:off x="3241632" y="4072291"/>
+            <a:ext cx="4237087" cy="272465"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -2120,8 +2433,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9695140" y="14534444"/>
-          <a:ext cx="6193165" cy="0"/>
+          <a:off x="9778721" y="14868769"/>
+          <a:ext cx="6194251" cy="0"/>
           <a:chOff x="9789886" y="8792028"/>
           <a:chExt cx="6201228" cy="2064659"/>
         </a:xfrm>
@@ -2476,23 +2789,1687 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>225593</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>162375</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>308587</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>117232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449386</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>418450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Rounded Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0DE2CA-5F31-41A8-968D-A29F0868A4B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2887664" y="4396155"/>
+          <a:ext cx="4087568" cy="301218"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0A52BC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>129380</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>136769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>273538</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>440657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92FA522-CA26-4020-A932-4EEEF155884A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4642765" y="5588000"/>
+          <a:ext cx="1804927" cy="303888"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="8D1A12"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149060</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234461</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>449669</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AE16F7-388E-4BCA-BFE0-16C180796B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4662445" y="6154615"/>
+          <a:ext cx="1746170" cy="332439"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="8D1A12"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>196267</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>195385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>455283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC384B73-F6C2-4943-A650-BBCAD2E4265F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6722113" y="6818923"/>
+          <a:ext cx="1601272" cy="259898"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="8D1A12"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>137342</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>527539</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>418452</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49486FB5-748A-4CB6-975F-0B05241CFBD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9887034" y="7366000"/>
+          <a:ext cx="1777428" cy="262144"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="8D1A12"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>170519</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>527539</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>407597</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D69BA9-1EBA-41EE-8C45-E771DC31C93D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2749596" y="9652000"/>
+          <a:ext cx="1646558" cy="251289"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="518126"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136769</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>214923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>488462</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>475224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48923997-393B-40C5-97BF-80CC44BFC7EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6662615" y="10316308"/>
+          <a:ext cx="1641232" cy="260301"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="518126"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>174307</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>156307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586153</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>445483</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBFF2D2-77C1-4F06-96E4-21ABF424E0DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2753384" y="12074769"/>
+          <a:ext cx="2346154" cy="289176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="518126"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>136769</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>228878</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>408216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C313829D-AE79-45CC-A326-48F61DA51C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15884769" y="12641385"/>
+          <a:ext cx="2397647" cy="290985"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEB5D"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>184292</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>195385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449385</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>458577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4831CD42-C8CB-4C34-8C1B-2E1CFE2DBD9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6710138" y="10902462"/>
+          <a:ext cx="1554632" cy="263192"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="518126"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>111903</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>195385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>449385</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>466689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDCF3F9-DDA8-4BFB-AB00-9FBF8671237A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9861595" y="7991231"/>
+          <a:ext cx="2369482" cy="271304"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="8D1A12"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151551</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371231</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>441005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBD5BCD-00AE-43CE-8DFC-5FC6358BD80A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9901243" y="11488615"/>
+          <a:ext cx="2251680" cy="265159"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="518126"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127534</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>293077</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>403689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3032CC-1322-8A47-B412-49795B412439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4640919" y="9671538"/>
+          <a:ext cx="1455081" cy="227843"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123628</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>468923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065474DF-9DEC-8D47-83D6-C9C5371571AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5281782" y="12094308"/>
+          <a:ext cx="1068218" cy="293077"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>125474</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>527539</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>456286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A410A4-BE58-4A4C-B531-B4EEDB8482BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6651320" y="5627076"/>
+          <a:ext cx="1691604" cy="280441"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D61F1E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>117230</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>432841</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2489BD-8DF5-E34F-BC93-F0B0C80F861E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6643076" y="6154615"/>
+          <a:ext cx="1680309" cy="315611"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D61F1E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>214924</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>234462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>468923</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>473158</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rounded Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2F38050-DCE7-564D-84DB-345E4EF5FED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9319847" y="4513385"/>
+          <a:ext cx="6252307" cy="238696"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>156736</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>429846</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>448470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF7D01A-2AA8-CD49-A303-80EAE0B6699E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8616890" y="6779845"/>
+          <a:ext cx="3594648" cy="292163"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D61F1E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85846</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>195385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>488461</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>449713</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rounded Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9293067-DF72-6C4E-A7A2-30ADFD2785F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10187231" y="3888154"/>
+          <a:ext cx="5404461" cy="254328"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101478</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>222738</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>445804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rounded Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB629339-F3C9-1E48-AC05-DDDF8AB2EE16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9851170" y="3251201"/>
+          <a:ext cx="4087568" cy="301218"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104089</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>230553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>269632</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>458396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F9C744-BC22-7642-9132-0D466BAD1CC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564243" y="10331938"/>
+          <a:ext cx="1455081" cy="227843"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>100182</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>207107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>246186</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>434950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC46CBC-5B1C-094C-8171-BB3FC9132F09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10572797" y="10914184"/>
+          <a:ext cx="1455081" cy="227843"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152829</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>558802</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>425025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEDFAC45-0EB6-3242-AB64-8F815112BA05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11934521" y="7338645"/>
+          <a:ext cx="1695512" cy="296072"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D61F1E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>109842</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>214922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390768</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>460195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65E3C10-1455-4E43-94C5-779FED85A7AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12536304" y="8010768"/>
+          <a:ext cx="2312926" cy="245273"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D61F1E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>174428</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>214923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>468924</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>450581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5015F024-B52F-A547-80F8-21BBCB6F58C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12600890" y="11527692"/>
+          <a:ext cx="2326496" cy="235658"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101356</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>146889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>195956</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>491602</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="91" name="Group 90">
+        <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B2A54B-2CEF-49F4-8EE9-E3E9CB575C1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413DD9E2-A0E9-5C42-8EF8-E13E08FD99AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2500,21 +4477,584 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4743164" y="12490446"/>
-          <a:ext cx="13082194" cy="463553"/>
-          <a:chOff x="2848428" y="2866569"/>
-          <a:chExt cx="10951291" cy="388259"/>
+          <a:off x="2692156" y="2509089"/>
+          <a:ext cx="11245200" cy="332013"/>
+          <a:chOff x="2848428" y="2866570"/>
+          <a:chExt cx="10951291" cy="388258"/>
         </a:xfrm>
         <a:solidFill>
-          <a:schemeClr val="accent6"/>
+          <a:srgbClr val="0A52BC"/>
         </a:solidFill>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="Triangle 110">
+          <xdr:cNvPr id="3" name="Triangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66919043-922D-4F82-A829-0717B20C18D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08EB765-CC6B-5E43-9299-4ECBC27F96D8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2848428" y="3011715"/>
+            <a:ext cx="380999" cy="235857"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0A52BC"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Triangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B97184B-2753-CA4E-9D1C-CDE16D29403D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="13396685" y="3018971"/>
+            <a:ext cx="380999" cy="235857"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0A52BC"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40EC4895-7D6F-E146-BF2F-43A8DF55F269}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2848429" y="2866570"/>
+            <a:ext cx="10951290" cy="159872"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0A52BC"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99365</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>2093</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>453572</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2125E589-8895-E648-8BF8-760217B06FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2690165" y="1924957"/>
+          <a:ext cx="15765028" cy="332015"/>
+          <a:chOff x="2848428" y="2866571"/>
+          <a:chExt cx="10929256" cy="388257"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Triangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E72C723-0936-3946-AD36-D29941D2A3D2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2848428" y="3011715"/>
+            <a:ext cx="380999" cy="235857"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="EA8338"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Triangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4404EA70-A670-BA40-9531-F7FAFFC727FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="13396685" y="3018971"/>
+            <a:ext cx="380999" cy="235857"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="EA8338"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A20E7C-C23E-A04C-9EE9-D3FA0F406C57}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2848429" y="2866571"/>
+            <a:ext cx="10903857" cy="127000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="EA8338"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="EA8338"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163284</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>517072</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Group 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B191D21-E9E4-E84F-A719-BFA32D1AF702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2754084" y="4730750"/>
+          <a:ext cx="12997544" cy="307522"/>
+          <a:chOff x="2848428" y="2866570"/>
+          <a:chExt cx="10951291" cy="388258"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="8D1A12"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Triangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580AA0B8-E3C8-AA4B-A0D6-4D2E44BEE8F4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2848428" y="3011715"/>
+            <a:ext cx="380999" cy="235857"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="8D1A12"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Triangle 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B61923-E07E-ED44-9775-507E892960E2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="13396685" y="3018971"/>
+            <a:ext cx="380999" cy="235857"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="8D1A12"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F47DA2F9-D759-F64A-AED1-6C729C6964FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2848429" y="2866570"/>
+            <a:ext cx="10951290" cy="159872"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="8D1A12"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>197922</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>299862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>599722</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>798790</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27150D5-487C-1444-A70E-E78C98494FA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2788722" y="8123062"/>
+          <a:ext cx="12936700" cy="460828"/>
+          <a:chOff x="2848428" y="2866570"/>
+          <a:chExt cx="10951291" cy="388258"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="518126"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Triangle 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA29E64-4CE3-0F4C-85B7-814326D1C782}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2561,10 +5101,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="Triangle 111">
+          <xdr:cNvPr id="16" name="Triangle 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C8908E-A06B-4E34-98C8-AF603B9E8C02}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15CA99E-4DA5-F045-9824-11F8ECB8BA4D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2611,10 +5151,970 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="Rectangle 93">
+          <xdr:cNvPr id="17" name="Rectangle 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90DF1D26-1F30-48E5-9F0B-277DE5B7ABB3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72374D88-25A5-AE4C-BBFB-F9B6A18D2B43}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2848429" y="2866570"/>
+            <a:ext cx="10951290" cy="159872"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="518126"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119459</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247402</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>487366</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E45930-ADD0-C14F-A3DF-5EF25D5855D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6304359" y="3028483"/>
+          <a:ext cx="9716443" cy="900583"/>
+          <a:chOff x="3218543" y="3545112"/>
+          <a:chExt cx="8431651" cy="833822"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="0A52BC"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Rounded Rectangle 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9D4902-32B3-E541-9C24-C4A50FB9138D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3218543" y="3545112"/>
+            <a:ext cx="7416362" cy="269067"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="518126"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Rounded Rectangle 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC39C25-7D76-7844-BBAE-C2D81EB5A772}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4345366" y="4124932"/>
+            <a:ext cx="7304828" cy="254002"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="518126"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>377371</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>377371</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rounded Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28951D5-21AF-7346-934F-4B5128C4BC9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="14808200"/>
+          <a:ext cx="1964871" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="518126"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>529771</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>420913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rounded Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A182D5-F0ED-D942-BF97-978CA7C14E13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7699829" y="14808200"/>
+          <a:ext cx="1961242" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="518126"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="518126"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>442686</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>206830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>515257</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Elbow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F5A55C-23D1-2947-A746-D40F6391D9BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7667172" y="14771914"/>
+          <a:ext cx="0" cy="72571"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2174"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>595087</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>268516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14515</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105231</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Elbow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E214ABB-8B7E-AF4F-875B-501CACA8FB03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9759951" y="14774636"/>
+          <a:ext cx="0" cy="67128"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2174"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>29029</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>224972</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Group 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B3C24F-3174-684A-A9F9-656DDE929B2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9808029" y="14808200"/>
+          <a:ext cx="6190343" cy="0"/>
+          <a:chOff x="9789886" y="8792028"/>
+          <a:chExt cx="6201228" cy="2064659"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="Rounded Rectangle 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9438B83A-2A29-C74A-992E-B5B103636575}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9789886" y="8792028"/>
+            <a:ext cx="1211943" cy="268516"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D3E0B4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="518126"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Rounded Rectangle 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0504FD89-37D3-E94F-8343-490196CF5B1D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11194142" y="9379856"/>
+            <a:ext cx="2510972" cy="279401"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D3E0B4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="518126"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="Rounded Rectangle 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54073430-7EE2-5840-A1BA-89BB7AA69E52}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14042571" y="9815284"/>
+            <a:ext cx="1621970" cy="297543"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D3E0B4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="518126"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="29" name="Elbow Connector 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C06284-0023-4140-B100-2161520BF7E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="10960102" y="9091389"/>
+            <a:ext cx="417286" cy="72571"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 2174"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="34925">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="30" name="Elbow Connector 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FA3712-BAA0-5040-8E66-C1441AE06E85}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="13652502" y="9606643"/>
+            <a:ext cx="417286" cy="72571"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 2174"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="34925">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="Diamond 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D16CBEF-5BDF-1A45-9A71-0FA89D133501}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15573829" y="10475686"/>
+            <a:ext cx="417285" cy="381001"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D3E0B4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="518126"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="32" name="Elbow Connector 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CCE1C55-AAE2-8D4F-94B5-5D8E3E6A2330}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="15564760" y="10158187"/>
+            <a:ext cx="417286" cy="72571"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 2174"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="34925">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>225593</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>162375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="Group 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA6080E-C7B2-7A44-8FA3-B0EAAB9E3792}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4746793" y="11820975"/>
+          <a:ext cx="12969708" cy="450853"/>
+          <a:chOff x="2848428" y="2866569"/>
+          <a:chExt cx="10951291" cy="388259"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="Triangle 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE3FE11-0E39-D847-A08B-6282A4ECF661}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2848428" y="3011715"/>
+            <a:ext cx="380999" cy="235857"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="518126"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Triangle 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB04EB4-BC92-1A44-BA8E-0F8F7318DE4A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="13396685" y="3018971"/>
+            <a:ext cx="380999" cy="235857"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="518126"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="Rectangle 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158267AA-2ACF-B848-9D36-FB3A34831589}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2677,10 +6177,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="Rounded Rectangle 38">
+        <xdr:cNvPr id="37" name="Rounded Rectangle 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0DE2CA-5F31-41A8-968D-A29F0868A4B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5799BF-6461-284C-A57B-EF801C0E448E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,8 +6188,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4875132" y="4417671"/>
-          <a:ext cx="6510107" cy="289977"/>
+          <a:off x="4868864" y="4479687"/>
+          <a:ext cx="6558928" cy="289977"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2743,10 +6243,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="Rounded Rectangle 36">
+        <xdr:cNvPr id="38" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92FA522-CA26-4020-A932-4EEEF155884A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D7195FA-FA89-124C-A809-B981FDDDB1A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,8 +6254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2785722" y="5529514"/>
-          <a:ext cx="4957979" cy="304522"/>
+          <a:off x="2778795" y="5597137"/>
+          <a:ext cx="4978431" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2809,10 +6309,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="Rounded Rectangle 36">
+        <xdr:cNvPr id="39" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AE16F7-388E-4BCA-BFE0-16C180796B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81057642-0AEC-3E45-9320-3A3E31BCA7EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,8 +6320,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4288257" y="6091268"/>
-          <a:ext cx="6703092" cy="304522"/>
+          <a:off x="4276560" y="6170810"/>
+          <a:ext cx="6664992" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2875,10 +6375,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="Rounded Rectangle 36">
+        <xdr:cNvPr id="40" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC384B73-F6C2-4943-A650-BBCAD2E4265F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E82715B-49B1-CF40-B927-8D00528FA037}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2886,8 +6386,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5757749" y="6609238"/>
-          <a:ext cx="5598030" cy="304522"/>
+          <a:off x="5755935" y="6682469"/>
+          <a:ext cx="5642397" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2941,10 +6441,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="Rounded Rectangle 36">
+        <xdr:cNvPr id="41" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49486FB5-748A-4CB6-975F-0B05241CFBD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A1E4F79-D09F-304B-91B0-3429F5769BB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2952,8 +6452,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8052954" y="7290572"/>
-          <a:ext cx="7574100" cy="304522"/>
+          <a:off x="8070932" y="7366607"/>
+          <a:ext cx="7602634" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3007,10 +6507,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="Rounded Rectangle 36">
+        <xdr:cNvPr id="42" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D69BA9-1EBA-41EE-8C45-E771DC31C93D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE6EF33-4764-A14F-B9FD-8C6416547E2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3018,8 +6518,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2944092" y="8920468"/>
-          <a:ext cx="8213766" cy="358480"/>
+          <a:off x="2937165" y="9575095"/>
+          <a:ext cx="8263246" cy="358480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3073,10 +6573,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="Rounded Rectangle 36">
+        <xdr:cNvPr id="43" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48923997-393B-40C5-97BF-80CC44BFC7EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43E67A8-A95C-5343-A077-DD6A20711023}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3084,8 +6584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4431970" y="9570034"/>
-          <a:ext cx="6639295" cy="304522"/>
+          <a:off x="4421249" y="10215425"/>
+          <a:ext cx="6687786" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3139,10 +6639,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="Rounded Rectangle 36">
+        <xdr:cNvPr id="44" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBFF2D2-77C1-4F06-96E4-21ABF424E0DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F39C59-2C08-7640-8D1C-3947AFD118D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3150,8 +6650,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3104187" y="10772104"/>
-          <a:ext cx="4144709" cy="304522"/>
+          <a:off x="3097260" y="11995922"/>
+          <a:ext cx="4165161" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3205,10 +6705,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="Rounded Rectangle 36">
+        <xdr:cNvPr id="45" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C313829D-AE79-45CC-A326-48F61DA51C6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7BC9C3-4CF5-A341-A1B3-3CE7A253CE1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3216,8 +6716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6645873" y="13047738"/>
-          <a:ext cx="10852913" cy="260048"/>
+          <a:off x="6627730" y="13203767"/>
+          <a:ext cx="10767642" cy="260048"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3271,10 +6771,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="Rounded Rectangle 36">
+        <xdr:cNvPr id="46" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBE4EC5-7309-4E1C-816B-452A530B0741}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7491F418-C017-BB40-85D4-451A61EA55C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3282,8 +6782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5838702" y="12569783"/>
-          <a:ext cx="10267208" cy="304522"/>
+          <a:off x="5841341" y="13789973"/>
+          <a:ext cx="10315534" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3337,10 +6837,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="Rounded Rectangle 36">
+        <xdr:cNvPr id="47" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{976AC11C-0DA9-4DC5-BA64-57BE2248F557}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F04A793-2291-0647-92B5-DCBACF890E87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3348,8 +6848,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4774870" y="13178250"/>
-          <a:ext cx="9586851" cy="304522"/>
+          <a:off x="4768602" y="14401244"/>
+          <a:ext cx="9637981" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3406,7 +6906,7 @@
         <xdr:cNvPr id="48" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4831CD42-C8CB-4C34-8C1B-2E1CFE2DBD9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C297D9-88F9-0941-AE26-C710BA457B04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3414,8 +6914,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8489152" y="10701843"/>
-          <a:ext cx="4144709" cy="304522"/>
+          <a:off x="8511583" y="10756601"/>
+          <a:ext cx="4173738" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3472,7 +6972,7 @@
         <xdr:cNvPr id="49" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDCF3F9-DDA8-4BFB-AB00-9FBF8671237A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0181654F-9212-B146-9726-3AE66F1C0C86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3480,8 +6980,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10440390" y="7900667"/>
-          <a:ext cx="5153512" cy="304522"/>
+          <a:off x="10480964" y="7979506"/>
+          <a:ext cx="5159450" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3538,7 +7038,7 @@
         <xdr:cNvPr id="50" name="Rounded Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBD5BCD-00AE-43CE-8DFC-5FC6358BD80A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29619FE-F035-B34F-87FF-D72AA3417C32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3546,8 +7046,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9685812" y="11270869"/>
-          <a:ext cx="5756069" cy="304522"/>
+          <a:off x="9712696" y="11316391"/>
+          <a:ext cx="5775697" cy="304522"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3911,101 +7411,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:AD37"/>
+  <dimension ref="A4:AE37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="35" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL28" sqref="AL28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="4.875" customWidth="1"/>
-    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
     <col min="10" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="4.625" customWidth="1"/>
-    <col min="16" max="16" width="4.875" customWidth="1"/>
-    <col min="17" max="17" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" customWidth="1"/>
     <col min="18" max="20" width="8.5" customWidth="1"/>
-    <col min="21" max="21" width="8.375" customWidth="1"/>
-    <col min="22" max="23" width="4.875" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" customWidth="1"/>
+    <col min="22" max="23" width="4.83203125" customWidth="1"/>
     <col min="24" max="28" width="8.5" customWidth="1"/>
-    <col min="29" max="30" width="4.875" customWidth="1"/>
-    <col min="31" max="31" width="32.375" customWidth="1"/>
-    <col min="32" max="33" width="0.125" customWidth="1"/>
+    <col min="29" max="30" width="4.83203125" customWidth="1"/>
+    <col min="31" max="31" width="32.33203125" customWidth="1"/>
+    <col min="32" max="33" width="0.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:30" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="28" t="s">
+    <row r="4" spans="2:30" ht="17" thickBot="1"/>
+    <row r="5" spans="2:30" ht="32" customHeight="1">
+      <c r="B5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="37"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="59"/>
     </row>
-    <row r="6" spans="2:30" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="29"/>
-      <c r="C6" s="31" t="s">
+    <row r="6" spans="2:30" ht="32" customHeight="1">
+      <c r="B6" s="52"/>
+      <c r="C6" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="34" t="s">
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="33"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="56"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17" t="s">
@@ -4016,8 +7516,1212 @@
       <c r="AC6" s="17"/>
       <c r="AD6" s="13"/>
     </row>
-    <row r="7" spans="2:30" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
+    <row r="7" spans="2:30" ht="25" customHeight="1">
+      <c r="B7" s="53"/>
+      <c r="C7" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z7" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA7" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB7" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC7" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD7" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" ht="46" customHeight="1">
+      <c r="B8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="40"/>
+    </row>
+    <row r="9" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
+      <c r="B9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="40"/>
+    </row>
+    <row r="10" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
+      <c r="B10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="40"/>
+    </row>
+    <row r="11" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
+      <c r="B11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="40"/>
+    </row>
+    <row r="12" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
+      <c r="B12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="40"/>
+    </row>
+    <row r="13" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
+      <c r="B13" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="40"/>
+    </row>
+    <row r="14" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
+      <c r="B14" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="40"/>
+    </row>
+    <row r="15" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
+      <c r="B15" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="40"/>
+    </row>
+    <row r="16" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
+      <c r="B16" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="40"/>
+    </row>
+    <row r="17" spans="1:31" ht="46" customHeight="1" outlineLevel="1">
+      <c r="B17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="40"/>
+    </row>
+    <row r="18" spans="1:31" ht="46" customHeight="1" outlineLevel="1">
+      <c r="B18" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="40"/>
+    </row>
+    <row r="19" spans="1:31" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="B19" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="40"/>
+    </row>
+    <row r="20" spans="1:31" ht="47.25" customHeight="1" outlineLevel="1">
+      <c r="B20" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="40"/>
+    </row>
+    <row r="21" spans="1:31" ht="47.25" customHeight="1" outlineLevel="1">
+      <c r="B21" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="40"/>
+    </row>
+    <row r="22" spans="1:31" ht="47.25" customHeight="1" outlineLevel="1">
+      <c r="B22" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="40"/>
+    </row>
+    <row r="23" spans="1:31" ht="47.25" customHeight="1" outlineLevel="1">
+      <c r="B23" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="40"/>
+    </row>
+    <row r="24" spans="1:31" ht="47.25" customHeight="1" outlineLevel="1">
+      <c r="B24" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="40"/>
+    </row>
+    <row r="25" spans="1:31" ht="46" customHeight="1" outlineLevel="1" thickBot="1">
+      <c r="B25" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="43"/>
+    </row>
+    <row r="26" spans="1:31" ht="46" customHeight="1" outlineLevel="1">
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="44"/>
+    </row>
+    <row r="27" spans="1:31" ht="46" customHeight="1" outlineLevel="1">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="44"/>
+    </row>
+    <row r="28" spans="1:31" ht="46" customHeight="1">
+      <c r="A28" s="44"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="44"/>
+    </row>
+    <row r="29" spans="1:31" ht="46" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A29" s="44"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="44"/>
+    </row>
+    <row r="30" spans="1:31" ht="46" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A30" s="44"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="44"/>
+    </row>
+    <row r="31" spans="1:31" ht="46" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A31" s="44"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="44"/>
+    </row>
+    <row r="32" spans="1:31" ht="46" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A32" s="44"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="44"/>
+    </row>
+    <row r="33" spans="1:31" ht="46" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A33" s="44"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="44"/>
+    </row>
+    <row r="34" spans="1:31" ht="46" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A34" s="44"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="44"/>
+    </row>
+    <row r="35" spans="1:31" ht="46" customHeight="1" collapsed="1">
+      <c r="A35" s="44"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="44"/>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+    </row>
+    <row r="37" spans="1:31" ht="82" customHeight="1">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B37:AD37"/>
+    <mergeCell ref="B35:AD35"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="Z5:AD5"/>
+    <mergeCell ref="C5:Y5"/>
+  </mergeCells>
+  <pageMargins left="0" right="0.25" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="3" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7646DD-F4E9-A148-B515-E8DBAF8904E4}">
+  <dimension ref="B4:AD37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="65" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="10" max="14" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" customWidth="1"/>
+    <col min="18" max="20" width="8.5" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" customWidth="1"/>
+    <col min="22" max="23" width="4.83203125" customWidth="1"/>
+    <col min="24" max="28" width="8.5" customWidth="1"/>
+    <col min="29" max="30" width="4.83203125" customWidth="1"/>
+    <col min="31" max="31" width="32.33203125" customWidth="1"/>
+    <col min="32" max="33" width="0.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:30" ht="17" thickBot="1"/>
+    <row r="5" spans="2:30" ht="32" customHeight="1">
+      <c r="B5" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="59"/>
+    </row>
+    <row r="6" spans="2:30" ht="32" customHeight="1">
+      <c r="B6" s="52"/>
+      <c r="C6" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="13"/>
+    </row>
+    <row r="7" spans="2:30" ht="25" customHeight="1">
+      <c r="B7" s="53"/>
       <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
@@ -4084,10 +8788,10 @@
       <c r="X7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y7" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="Z7" s="24" t="s">
         <v>57</v>
       </c>
       <c r="AA7" s="9" t="s">
@@ -4103,7 +8807,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:30" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30" ht="46" customHeight="1">
       <c r="B8" s="19" t="s">
         <v>20</v>
       </c>
@@ -4136,9 +8840,9 @@
       <c r="AC8" s="11"/>
       <c r="AD8" s="15"/>
     </row>
-    <row r="9" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
       <c r="B9" s="18" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -4169,7 +8873,7 @@
       <c r="AC9" s="11"/>
       <c r="AD9" s="15"/>
     </row>
-    <row r="10" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
       <c r="B10" s="21" t="s">
         <v>16</v>
       </c>
@@ -4202,7 +8906,7 @@
       <c r="AC10" s="11"/>
       <c r="AD10" s="15"/>
     </row>
-    <row r="11" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
       <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
@@ -4235,7 +8939,7 @@
       <c r="AC11" s="11"/>
       <c r="AD11" s="15"/>
     </row>
-    <row r="12" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
       <c r="B12" s="21" t="s">
         <v>18</v>
       </c>
@@ -4268,7 +8972,7 @@
       <c r="AC12" s="11"/>
       <c r="AD12" s="15"/>
     </row>
-    <row r="13" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
       <c r="B13" s="18" t="s">
         <v>13</v>
       </c>
@@ -4301,7 +9005,7 @@
       <c r="AC13" s="11"/>
       <c r="AD13" s="15"/>
     </row>
-    <row r="14" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
       <c r="B14" s="21" t="s">
         <v>25</v>
       </c>
@@ -4334,7 +9038,7 @@
       <c r="AC14" s="11"/>
       <c r="AD14" s="15"/>
     </row>
-    <row r="15" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
       <c r="B15" s="22" t="s">
         <v>27</v>
       </c>
@@ -4367,7 +9071,7 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="15"/>
     </row>
-    <row r="16" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
       <c r="B16" s="22" t="s">
         <v>19</v>
       </c>
@@ -4400,7 +9104,7 @@
       <c r="AC16" s="11"/>
       <c r="AD16" s="15"/>
     </row>
-    <row r="17" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
       <c r="B17" s="22" t="s">
         <v>30</v>
       </c>
@@ -4433,7 +9137,7 @@
       <c r="AC17" s="11"/>
       <c r="AD17" s="15"/>
     </row>
-    <row r="18" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
       <c r="B18" s="22" t="s">
         <v>32</v>
       </c>
@@ -4466,7 +9170,7 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="15"/>
     </row>
-    <row r="19" spans="2:30" ht="87.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="B19" s="20" t="s">
         <v>14</v>
       </c>
@@ -4499,7 +9203,7 @@
       <c r="AC19" s="11"/>
       <c r="AD19" s="15"/>
     </row>
-    <row r="20" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="B20" s="22" t="s">
         <v>26</v>
       </c>
@@ -4532,7 +9236,7 @@
       <c r="AC20" s="11"/>
       <c r="AD20" s="15"/>
     </row>
-    <row r="21" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="B21" s="22" t="s">
         <v>28</v>
       </c>
@@ -4565,7 +9269,7 @@
       <c r="AC21" s="11"/>
       <c r="AD21" s="15"/>
     </row>
-    <row r="22" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="B22" s="22" t="s">
         <v>29</v>
       </c>
@@ -4598,7 +9302,7 @@
       <c r="AC22" s="11"/>
       <c r="AD22" s="15"/>
     </row>
-    <row r="23" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="B23" s="22" t="s">
         <v>33</v>
       </c>
@@ -4631,7 +9335,7 @@
       <c r="AC23" s="11"/>
       <c r="AD23" s="15"/>
     </row>
-    <row r="24" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:30" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="B24" s="22" t="s">
         <v>31</v>
       </c>
@@ -4664,7 +9368,7 @@
       <c r="AC24" s="11"/>
       <c r="AD24" s="15"/>
     </row>
-    <row r="25" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
       <c r="B25" s="18" t="s">
         <v>15</v>
       </c>
@@ -4697,7 +9401,7 @@
       <c r="AC25" s="11"/>
       <c r="AD25" s="15"/>
     </row>
-    <row r="26" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -4730,7 +9434,7 @@
       <c r="AC26" s="11"/>
       <c r="AD26" s="15"/>
     </row>
-    <row r="27" spans="2:30" ht="45.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:30" ht="46" customHeight="1" outlineLevel="1">
       <c r="B27" s="21" t="s">
         <v>23</v>
       </c>
@@ -4763,7 +9467,7 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="15"/>
     </row>
-    <row r="28" spans="2:30" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:30" ht="46" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>24</v>
       </c>
@@ -4796,7 +9500,7 @@
       <c r="AC28" s="11"/>
       <c r="AD28" s="15"/>
     </row>
-    <row r="29" spans="2:30" ht="45.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:30" ht="46" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B29" s="16" t="s">
         <v>4</v>
       </c>
@@ -4829,7 +9533,7 @@
       <c r="AC29" s="11"/>
       <c r="AD29" s="15"/>
     </row>
-    <row r="30" spans="2:30" ht="45.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:30" ht="46" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B30" s="16" t="s">
         <v>5</v>
       </c>
@@ -4862,7 +9566,7 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="15"/>
     </row>
-    <row r="31" spans="2:30" ht="45.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:30" ht="46" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B31" s="16" t="s">
         <v>6</v>
       </c>
@@ -4895,7 +9599,7 @@
       <c r="AC31" s="11"/>
       <c r="AD31" s="15"/>
     </row>
-    <row r="32" spans="2:30" ht="45.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:30" ht="46" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B32" s="16" t="s">
         <v>7</v>
       </c>
@@ -4928,7 +9632,7 @@
       <c r="AC32" s="11"/>
       <c r="AD32" s="15"/>
     </row>
-    <row r="33" spans="2:30" ht="45.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:30" ht="46" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B33" s="16" t="s">
         <v>8</v>
       </c>
@@ -4961,7 +9665,7 @@
       <c r="AC33" s="11"/>
       <c r="AD33" s="15"/>
     </row>
-    <row r="34" spans="2:30" ht="45.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:30" ht="46" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B34" s="16" t="s">
         <v>9</v>
       </c>
@@ -4994,38 +9698,38 @@
       <c r="AC34" s="11"/>
       <c r="AD34" s="15"/>
     </row>
-    <row r="35" spans="2:30" ht="45.95" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="27"/>
+    <row r="35" spans="2:30" ht="46" customHeight="1" collapsed="1">
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="64"/>
     </row>
-    <row r="36" spans="2:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:30" ht="17" thickBot="1">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5056,72 +9760,82 @@
       <c r="AC36" s="2"/>
       <c r="AD36" s="3"/>
     </row>
-    <row r="37" spans="2:30" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
+    <row r="37" spans="2:30" ht="82" customHeight="1">
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="65"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="65"/>
+      <c r="Z37" s="65"/>
+      <c r="AA37" s="65"/>
+      <c r="AB37" s="65"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B35:AD35"/>
     <mergeCell ref="B37:AD37"/>
-    <mergeCell ref="B35:AD35"/>
     <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:Y5"/>
+    <mergeCell ref="Z5:AD5"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="J6:P6"/>
     <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="C5:W5"/>
-    <mergeCell ref="X5:AD5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="3" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B51956-2455-E84E-8749-D080093B4F32}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AD33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="3" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5328,6 +10042,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8273896-8792-417D-9E00-9C57D91D22E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{861B9A89-FDBD-407C-87EE-99DB2DA7E701}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5340,14 +10062,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8273896-8792-417D-9E00-9C57D91D22E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
